--- a/lab2/news.xlsx
+++ b/lab2/news.xlsx
@@ -23,64 +23,64 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Bắt nguyên tổng giám đốc Tổng công ty khai thác dầu khí</t>
-  </si>
-  <si>
-    <t>https://dantri.com.vn/su-kien/bat-nguyen-tong-giam-doc-tong-cong-ty-khai-thac-dau-khi-20181218173621521.htm</t>
-  </si>
-  <si>
-    <t>Phó Thủ tướng: Đưa ra khỏi ngành hiệu trưởng xâm hại học sinh ở Phú Thọ</t>
-  </si>
-  <si>
-    <t>https://dantri.com.vn/su-kien/pho-thu-tuong-dua-ra-khoi-nganh-hieu-truong-xam-hai-hoc-sinh-o-phu-tho-20181218193324267.htm</t>
-  </si>
-  <si>
-    <t>Báo Hàn Quốc cảnh báo đội tuyển Việt Nam có thể mất HLV Park Hang Seo</t>
-  </si>
-  <si>
-    <t>https://dantri.com.vn/su-kien/bao-han-quoc-canh-bao-doi-tuyen-viet-nam-co-the-mat-hlv-park-hang-seo-2018121811453425.htm</t>
-  </si>
-  <si>
-    <t>Man Utd quyết định sa thải huấn luyện viên Mourinho</t>
-  </si>
-  <si>
-    <t>https://dantri.com.vn/su-kien/man-utd-quyet-dinh-sa-thai-huan-luyen-vien-mourinho-20181218172157508.htm</t>
-  </si>
-  <si>
-    <t>Mưa lớn gây ngập chưa từng thấy “nóng” nghị trường Đà Nẵng</t>
-  </si>
-  <si>
-    <t>https://dantri.com.vn/su-kien/mua-lon-gay-ngap-chua-tung-thay-nong-nghi-truong-da-nang-20181218185127249.htm</t>
-  </si>
-  <si>
-    <t>Ứng cử viên số 1 giải châu Á mang đội hình dự World Cup để đấu Việt Nam</t>
-  </si>
-  <si>
-    <t>https://dantri.com.vn/su-kien/ung-cu-vien-so-1-giai-chau-a-mang-doi-hinh-du-world-cup-de-dau-viet-nam-20181217223739476.htm</t>
-  </si>
-  <si>
-    <t>Đá xoáy Mourinho, Pogba bị "ném đá" tơi bời</t>
-  </si>
-  <si>
-    <t>https://dantri.com.vn/su-kien/da-xoay-mourinho-pogba-bi-nem-da-toi-boi-20181218192814495.htm</t>
-  </si>
-  <si>
-    <t>Bữa tiệc bình dị của gia đình dành cho Đặng Văn Lâm sau thành công tại AFF Cup</t>
-  </si>
-  <si>
-    <t>https://dantri.com.vn/su-kien/bua-tiec-binh-di-cua-gia-dinh-danh-cho-dang-van-lam-sau-thanh-cong-tai-aff-cup-20181218064053473.htm</t>
-  </si>
-  <si>
-    <t>Đội tuyển Việt Nam chia tay Văn Quyết, Anh Đức trước thềm Asian Cup 2019</t>
-  </si>
-  <si>
-    <t>https://dantri.com.vn/su-kien/doi-tuyen-viet-nam-chia-tay-van-quyet-anh-duc-truoc-them-asian-cup-2019-20181218114226268.htm</t>
-  </si>
-  <si>
-    <t>H'Hen Niê bật khóc khi được người hâm mộ chào đón nồng nhiệt</t>
-  </si>
-  <si>
-    <t>https://dantri.com.vn/su-kien/h-hen-nie-bat-khoc-khi-duoc-nguoi-ham-mo-chao-don-nong-nhiet-20181218172607469.htm</t>
+    <t>Thủ tướng gặp mặt, khen thưởng thầy trò HLV Park Hang Seo</t>
+  </si>
+  <si>
+    <t>https://dantri.com.vn/su-kien/thu-tuong-gap-mat-khen-thuong-thay-tro-hlv-park-hang-seo-20181221174806675.htm</t>
+  </si>
+  <si>
+    <t>Ngôi sao Iran e dè sức mạnh của đội tuyển Việt Nam</t>
+  </si>
+  <si>
+    <t>https://dantri.com.vn/su-kien/ngoi-sao-iran-e-de-suc-manh-cua-doi-tuyen-viet-nam-20181221161236575.htm</t>
+  </si>
+  <si>
+    <t>Cú điện thoại có thể đã khiến ông Trump quyết định rút quân khỏi Syria</t>
+  </si>
+  <si>
+    <t>https://dantri.com.vn/su-kien/cu-dien-thoai-co-the-da-khien-ong-trump-quyet-dinh-rut-quan-khoi-syria-20181221200801782.htm</t>
+  </si>
+  <si>
+    <t>Dân mạng ngỡ ngàng với mái tóc xù "súp-lơ" của Công Phượng</t>
+  </si>
+  <si>
+    <t>https://dantri.com.vn/su-kien/dan-mang-ngo-ngang-voi-mai-toc-xu-sup-lo-cua-cong-phuong-20181221201112445.htm</t>
+  </si>
+  <si>
+    <t>Sự thật về gia chủ và căn biệt thự "dát toàn vàng" ở Bà Rịa - Vũng Tàu</t>
+  </si>
+  <si>
+    <t>https://dantri.com.vn/su-kien/su-that-ve-gia-chu-va-can-biet-thu-dat-toan-vang-o-ba-ria-vung-tau-20181221154258196.htm</t>
+  </si>
+  <si>
+    <t>Đại gia ô tô lỗ nặng, bán cả nhà máy, tính nước bỏ nghề</t>
+  </si>
+  <si>
+    <t>https://dantri.com.vn/su-kien/dai-gia-o-to-lo-nang-ban-ca-nha-may-tinh-nuoc-bo-nghe-20181221132927882.htm</t>
+  </si>
+  <si>
+    <t>Nữ sinh lớp 10 mất tích sau khi đi sinh nhật bạn</t>
+  </si>
+  <si>
+    <t>https://dantri.com.vn/su-kien/nu-sinh-lop-10-mat-tich-sau-khi-di-sinh-nhat-ban-20181221105927496.htm</t>
+  </si>
+  <si>
+    <t>Trúng số, người đàn ông đều đặn nhận 10.000 USD/tuần cho đến hết đời</t>
+  </si>
+  <si>
+    <t>https://dantri.com.vn/su-kien/trung-so-nguoi-dan-ong-deu-dan-nhan-10000-usd-tuan-cho-den-het-doi-20181221164457361.htm</t>
+  </si>
+  <si>
+    <t>CLB Malaysia có thể chi đậm để chiêu mộ Quang Hải</t>
+  </si>
+  <si>
+    <t>https://dantri.com.vn/su-kien/clb-malaysia-co-the-chi-dam-de-chieu-mo-quang-hai-20181221123245907.htm</t>
+  </si>
+  <si>
+    <t>NSND Hoàng Dũng: “Ngày xưa, cứ mỗi lần tôi đói khổ, Anh Tú lại cho tiền”</t>
+  </si>
+  <si>
+    <t>https://dantri.com.vn/su-kien/nsnd-hoang-dung-ngay-xua-cu-moi-lan-toi-doi-kho-anh-tu-lai-cho-tien-2018122113095554.htm</t>
   </si>
 </sst>
 </file>
